--- a/serverconfig/centoscommands.xlsx
+++ b/serverconfig/centoscommands.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>BASIC CENTOS COMMANDS</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>enter password</t>
+  </si>
+  <si>
+    <t>change hostn0ame</t>
+  </si>
+  <si>
+    <t>hostnamectl set-hostname your-new-hostname</t>
+  </si>
+  <si>
+    <t>hostnamectl se-hostname "XYZ"</t>
   </si>
 </sst>
 </file>
@@ -124,10 +133,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,7 +444,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +465,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -472,53 +481,53 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>17</v>
       </c>
@@ -527,27 +536,27 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>13</v>
       </c>
@@ -556,14 +565,14 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
         <v>20</v>
       </c>
@@ -572,103 +581,133 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
@@ -685,29 +724,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/serverconfig/centoscommands.xlsx
+++ b/serverconfig/centoscommands.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>BASIC CENTOS COMMANDS</t>
   </si>
@@ -81,13 +81,19 @@
     <t>enter password</t>
   </si>
   <si>
-    <t>change hostn0ame</t>
-  </si>
-  <si>
     <t>hostnamectl set-hostname your-new-hostname</t>
   </si>
   <si>
     <t>hostnamectl se-hostname "XYZ"</t>
+  </si>
+  <si>
+    <t>change hostname</t>
+  </si>
+  <si>
+    <t>know os_version</t>
+  </si>
+  <si>
+    <t>cat /etc/os-release</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,24 +588,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -685,29 +695,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
@@ -724,6 +711,29 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
